--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2336030.291739316</v>
+        <v>2333574.340194665</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>236.6002797240834</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>191.754917432858</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,10 +1430,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1622,7 +1622,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
-        <v>146.1723741484336</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>236.8621683961346</v>
       </c>
     </row>
     <row r="15">
@@ -1844,7 +1844,7 @@
         <v>314.5090575347319</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0481076422589</v>
+        <v>110.9919825098429</v>
       </c>
       <c r="D17" t="n">
         <v>286.4582574919343</v>
@@ -1859,7 +1859,7 @@
         <v>342.6969415247048</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3829802585718</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96297765942717</v>
+        <v>40.9629776594272</v>
       </c>
       <c r="T17" t="n">
         <v>135.6931860108715</v>
@@ -1904,10 +1904,10 @@
         <v>259.5274743413863</v>
       </c>
       <c r="W17" t="n">
-        <v>170.083395747396</v>
+        <v>281.0161845886644</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>301.5063165497204</v>
       </c>
       <c r="Y17" t="n">
         <v>318.0131545273049</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6071960531886</v>
+        <v>111.6071960531887</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02203696987918</v>
+        <v>99.0220369698792</v>
       </c>
       <c r="D19" t="n">
-        <v>80.3906888894637</v>
+        <v>80.39068888946372</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20917851782052</v>
+        <v>78.20917851782053</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19626389418259</v>
+        <v>77.19626389418261</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80102413027957</v>
+        <v>97.80102413027959</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53023078557213</v>
+        <v>76.53023078557214</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12763628108944</v>
+        <v>28.12763628108946</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70736854129868</v>
+        <v>20.70736854129869</v>
       </c>
       <c r="S19" t="n">
         <v>121.5442412026933</v>
@@ -2090,10 +2090,10 @@
         <v>313.7055859435131</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.6512616129628</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6969415247048</v>
+        <v>231.7641526834374</v>
       </c>
       <c r="H20" t="n">
         <v>226.3829802585718</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96297765942717</v>
+        <v>40.96297765942718</v>
       </c>
       <c r="T20" t="n">
-        <v>61.90534223284554</v>
+        <v>135.6931860108715</v>
       </c>
       <c r="U20" t="n">
         <v>182.7703878301533</v>
@@ -2144,7 +2144,7 @@
         <v>281.0161845886644</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5063165497204</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>318.0131545273049</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.6071960531886</v>
+        <v>111.6071960531887</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02203696987918</v>
+        <v>99.0220369698792</v>
       </c>
       <c r="D22" t="n">
-        <v>80.3906888894637</v>
+        <v>80.39068888946372</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20917851782052</v>
+        <v>78.20917851782053</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19626389418259</v>
+        <v>77.19626389418261</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80102413027957</v>
+        <v>97.80102413027959</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53023078557213</v>
+        <v>76.53023078557214</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12763628108944</v>
+        <v>28.12763628108946</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70736854129868</v>
+        <v>20.70736854129869</v>
       </c>
       <c r="S22" t="n">
         <v>121.5442412026933</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96297765942721</v>
+        <v>40.9629776594272</v>
       </c>
       <c r="T23" t="n">
         <v>135.6931860108715</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7703878301534</v>
+        <v>182.7703878301533</v>
       </c>
       <c r="V23" t="n">
         <v>259.5274743413863</v>
@@ -2476,25 +2476,25 @@
         <v>111.6071960531887</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02203696987921</v>
+        <v>99.0220369698792</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39068888946373</v>
+        <v>80.39068888946372</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20917851782055</v>
+        <v>78.20917851782053</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19626389418262</v>
+        <v>77.19626389418261</v>
       </c>
       <c r="G25" t="n">
-        <v>97.8010241302796</v>
+        <v>97.80102413027959</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53023078557216</v>
+        <v>76.53023078557214</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12763628108947</v>
+        <v>28.12763628108946</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70736854129871</v>
+        <v>20.70736854129869</v>
       </c>
       <c r="S25" t="n">
         <v>121.5442412026933</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2612,7 +2612,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797609</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2855,7 +2855,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598774</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957281</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124554</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3481,13 +3481,13 @@
         <v>213.5112124785838</v>
       </c>
       <c r="V37" t="n">
-        <v>222.7221921327222</v>
+        <v>179.437017596799</v>
       </c>
       <c r="W37" t="n">
         <v>213.822372609562</v>
       </c>
       <c r="X37" t="n">
-        <v>153.0090296620081</v>
+        <v>196.2942041979315</v>
       </c>
       <c r="Y37" t="n">
         <v>145.8840276250658</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.48713606114677</v>
+        <v>36.4871360611468</v>
       </c>
       <c r="T38" t="n">
         <v>131.2173444125911</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.1313544549082</v>
+        <v>107.1313544549083</v>
       </c>
       <c r="C40" t="n">
-        <v>94.54619537159878</v>
+        <v>94.5461953715988</v>
       </c>
       <c r="D40" t="n">
-        <v>75.91484729118331</v>
+        <v>75.91484729118332</v>
       </c>
       <c r="E40" t="n">
-        <v>73.73333691954012</v>
+        <v>73.73333691954014</v>
       </c>
       <c r="F40" t="n">
-        <v>116.0055968318257</v>
+        <v>72.72042229590221</v>
       </c>
       <c r="G40" t="n">
-        <v>93.32518253199918</v>
+        <v>93.32518253199919</v>
       </c>
       <c r="H40" t="n">
-        <v>72.05438918729173</v>
+        <v>72.05438918729175</v>
       </c>
       <c r="I40" t="n">
-        <v>23.65179468280905</v>
+        <v>23.65179468280906</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23152694301828</v>
+        <v>16.2315269430183</v>
       </c>
       <c r="S40" t="n">
         <v>117.0683996044129</v>
@@ -3715,7 +3715,7 @@
         <v>146.8483235491402</v>
       </c>
       <c r="U40" t="n">
-        <v>213.5112124785838</v>
+        <v>256.7963870145071</v>
       </c>
       <c r="V40" t="n">
         <v>179.437017596799</v>
@@ -3743,13 +3743,13 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>307.4519666070982</v>
       </c>
       <c r="G41" t="n">
         <v>363.9465890348609</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,10 +3797,10 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>222.8861064322523</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
         <v>322.7559640598765</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247738</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -3992,7 +3992,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>222.4310137042852</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4034,10 +4034,10 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>222.8861064322521</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
         <v>322.7559640598765</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1301.367519464211</v>
+        <v>1640.517726580262</v>
       </c>
       <c r="C11" t="n">
-        <v>979.8546354718728</v>
+        <v>1640.517726580262</v>
       </c>
       <c r="D11" t="n">
-        <v>669.0385698131959</v>
+        <v>1329.701660921585</v>
       </c>
       <c r="E11" t="n">
-        <v>430.0483882737176</v>
+        <v>991.3630412714139</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218339</v>
+        <v>627.8267694298796</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>260.2039522229492</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243045</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921004</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425607997</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.517726580259</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387291</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052946</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C13" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770413</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337113</v>
@@ -5230,19 +5230,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1654.93647038346</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1333.423586391122</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1022.607520732444</v>
+        <v>772.4735532892846</v>
       </c>
       <c r="E14" t="n">
-        <v>684.2689010822735</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822735</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3115.115923308143</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2909.035079530053</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2625.421825134556</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2320.102802812515</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>1994.086677499509</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>1994.086677499509</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228011</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052934</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254598</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611974</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268776</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770405</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998334</v>
+        <v>215.1557144998328</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657638</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328082</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337109</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,22 +5455,22 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
         <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W16" t="n">
         <v>1247.547945832861</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874599</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1889.686999739199</v>
+        <v>1473.081842778606</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.63840616116</v>
+        <v>1360.9687291323</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.286630916782</v>
+        <v>1071.616953887922</v>
       </c>
       <c r="E17" t="n">
-        <v>983.41230168091</v>
+        <v>754.7426246520498</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3403202536748</v>
+        <v>412.6706432248146</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1817934610439</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.229076498638</v>
+        <v>3284.229076498639</v>
       </c>
       <c r="T17" t="n">
-        <v>3147.165252245232</v>
+        <v>3147.165252245233</v>
       </c>
       <c r="U17" t="n">
-        <v>2962.548698881441</v>
+        <v>2962.548698881442</v>
       </c>
       <c r="V17" t="n">
-        <v>2700.399734900243</v>
+        <v>2700.399734900244</v>
       </c>
       <c r="W17" t="n">
-        <v>2528.598325054388</v>
+        <v>2416.545002992502</v>
       </c>
       <c r="X17" t="n">
-        <v>2528.598325054388</v>
+        <v>2111.993168093794</v>
       </c>
       <c r="Y17" t="n">
-        <v>2207.372916440949</v>
+        <v>1790.767759480355</v>
       </c>
     </row>
     <row r="18">
@@ -5583,13 +5583,13 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228006</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2162169052008</v>
+        <v>609.2162169052009</v>
       </c>
       <c r="C19" t="n">
         <v>509.1939573396663</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9912412897029</v>
+        <v>427.991241289703</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9920710696822</v>
+        <v>348.9920710696823</v>
       </c>
       <c r="F19" t="n">
         <v>271.0160469341442</v>
@@ -5665,10 +5665,10 @@
         <v>172.2271336712355</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92387025146569</v>
+        <v>94.92387025146571</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5677,7 +5677,7 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.7961656669588</v>
       </c>
       <c r="M19" t="n">
         <v>1004.953211266508</v>
@@ -5713,10 +5713,10 @@
         <v>1032.905041689871</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8294141542258</v>
+        <v>873.8294141542259</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9507583730681</v>
+        <v>721.9507583730682</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1547.615018311965</v>
+        <v>1777.633677677313</v>
       </c>
       <c r="C20" t="n">
-        <v>1247.566424733925</v>
+        <v>1477.585084099274</v>
       </c>
       <c r="D20" t="n">
-        <v>958.2146494895474</v>
+        <v>1188.233308854896</v>
       </c>
       <c r="E20" t="n">
-        <v>641.340320253675</v>
+        <v>871.3589796190245</v>
       </c>
       <c r="F20" t="n">
-        <v>641.340320253675</v>
+        <v>529.2869981917893</v>
       </c>
       <c r="G20" t="n">
         <v>295.1817934610439</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.229076498638</v>
+        <v>3284.229076498639</v>
       </c>
       <c r="T20" t="n">
-        <v>3221.698427778592</v>
+        <v>3147.165252245234</v>
       </c>
       <c r="U20" t="n">
-        <v>3037.081874414801</v>
+        <v>2962.548698881442</v>
       </c>
       <c r="V20" t="n">
-        <v>2774.932910433603</v>
+        <v>2700.399734900244</v>
       </c>
       <c r="W20" t="n">
-        <v>2491.078178525861</v>
+        <v>2416.545002992502</v>
       </c>
       <c r="X20" t="n">
-        <v>2186.526343627153</v>
+        <v>2416.545002992502</v>
       </c>
       <c r="Y20" t="n">
-        <v>1865.300935013714</v>
+        <v>2095.319594379063</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2162169052008</v>
+        <v>609.2162169052009</v>
       </c>
       <c r="C22" t="n">
         <v>509.1939573396663</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9912412897029</v>
+        <v>427.991241289703</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9920710696822</v>
+        <v>348.9920710696823</v>
       </c>
       <c r="F22" t="n">
         <v>271.0160469341442</v>
@@ -5902,10 +5902,10 @@
         <v>172.2271336712355</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92387025146569</v>
+        <v>94.92387025146571</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5914,19 +5914,19 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>660.7961656669588</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.953211266508</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.361587972372</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.691186892786</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.298687326445</v>
       </c>
       <c r="Q22" t="n">
         <v>1955.90898347896</v>
@@ -5950,10 +5950,10 @@
         <v>1032.905041689871</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8294141542258</v>
+        <v>873.8294141542259</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9507583730681</v>
+        <v>721.9507583730682</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.18914579962</v>
+        <v>1898.189145799619</v>
       </c>
       <c r="C23" t="n">
         <v>1598.14055222158</v>
@@ -5972,49 +5972,49 @@
         <v>1308.788776977202</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9144477413306</v>
+        <v>991.9144477413302</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8424663140954</v>
+        <v>649.842466314095</v>
       </c>
       <c r="G23" t="n">
         <v>303.6839395214641</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01426249260372</v>
+        <v>75.01426249260371</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01426249260372</v>
+        <v>75.01426249260371</v>
       </c>
       <c r="J23" t="n">
-        <v>431.2990424719822</v>
+        <v>263.8933934516292</v>
       </c>
       <c r="K23" t="n">
-        <v>765.1184161618287</v>
+        <v>597.7127671414756</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.152629410238</v>
+        <v>1048.746980389884</v>
       </c>
       <c r="M23" t="n">
-        <v>1749.684534082162</v>
+        <v>1582.278885061809</v>
       </c>
       <c r="N23" t="n">
-        <v>2296.463351140944</v>
+        <v>2129.057702120591</v>
       </c>
       <c r="O23" t="n">
-        <v>2799.435822020281</v>
+        <v>2632.030172999928</v>
       </c>
       <c r="P23" t="n">
-        <v>3194.210188377459</v>
+        <v>3168.158599890142</v>
       </c>
       <c r="Q23" t="n">
         <v>3626.63680239913</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.713124630186</v>
+        <v>3750.713124630185</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.336379519653</v>
+        <v>3709.336379519652</v>
       </c>
       <c r="T23" t="n">
         <v>3572.272555266247</v>
@@ -6026,7 +6026,7 @@
         <v>3125.507037921258</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.652306013516</v>
+        <v>2841.652306013515</v>
       </c>
       <c r="X23" t="n">
         <v>2537.100471114808</v>
@@ -6063,10 +6063,10 @@
         <v>94.02155409106575</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01426249260372</v>
+        <v>75.01426249260371</v>
       </c>
       <c r="J24" t="n">
-        <v>168.6915319832211</v>
+        <v>168.6915319832208</v>
       </c>
       <c r="K24" t="n">
         <v>406.955730963568</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7183629656213</v>
+        <v>617.7183629656212</v>
       </c>
       <c r="C25" t="n">
-        <v>517.6961034000867</v>
+        <v>517.6961034000866</v>
       </c>
       <c r="D25" t="n">
         <v>436.4933873501233</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4942171301026</v>
+        <v>357.4942171301025</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5181929945646</v>
+        <v>279.5181929945645</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7292797316559</v>
+        <v>180.7292797316558</v>
       </c>
       <c r="H25" t="n">
         <v>103.426016311886</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01426249260372</v>
+        <v>75.01426249260371</v>
       </c>
       <c r="J25" t="n">
         <v>120.1368949395393</v>
@@ -6157,22 +6157,22 @@
         <v>984.8409219364607</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.863734032793</v>
+        <v>1326.249298642325</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.193332953206</v>
+        <v>1625.578897562739</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.800833386866</v>
+        <v>1858.186397996398</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.411129539381</v>
+        <v>1964.41112953938</v>
       </c>
       <c r="R25" t="n">
         <v>1943.494595659281</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.72263484848</v>
+        <v>1820.722634848479</v>
       </c>
       <c r="T25" t="n">
         <v>1667.869942780378</v>
@@ -6181,16 +6181,16 @@
         <v>1447.680999268394</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.91043442488</v>
+        <v>1261.910434424879</v>
       </c>
       <c r="W25" t="n">
         <v>1041.407187750291</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3315602146463</v>
+        <v>882.3315602146462</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4529044334886</v>
+        <v>730.4529044334885</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557148</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910144</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911348</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2456.09431497013</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>2959.066785849467</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3672.421873296413</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257036</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,49 +6449,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467786</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>810.8729904741863</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1261.907203722595</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
-        <v>2240.457506552424</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611206</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490543</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873066</v>
@@ -6616,19 +6616,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>792.1780824632697</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1243.212295711679</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1776.744200383603</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N32" t="n">
-        <v>2323.523017442385</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O32" t="n">
-        <v>2826.495488321722</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6853,19 +6853,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,16 +6877,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1869.771103905776</v>
+        <v>1869.771103905775</v>
       </c>
       <c r="C35" t="n">
-        <v>1574.243562447212</v>
+        <v>1574.243562447211</v>
       </c>
       <c r="D35" t="n">
-        <v>1289.412839322309</v>
+        <v>1289.412839322308</v>
       </c>
       <c r="E35" t="n">
-        <v>977.0595622059122</v>
+        <v>977.0595622059118</v>
       </c>
       <c r="F35" t="n">
         <v>639.5086328981522</v>
@@ -6929,52 +6929,52 @@
         <v>297.8711582249961</v>
       </c>
       <c r="H35" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I35" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J35" t="n">
-        <v>430.0073132949893</v>
+        <v>262.6016642746363</v>
       </c>
       <c r="K35" t="n">
-        <v>763.8266869848358</v>
+        <v>596.4210379644828</v>
       </c>
       <c r="L35" t="n">
-        <v>1214.860900233245</v>
+        <v>1047.455251212892</v>
       </c>
       <c r="M35" t="n">
-        <v>1748.392804905169</v>
+        <v>1580.987155884816</v>
       </c>
       <c r="N35" t="n">
-        <v>2295.171621963952</v>
+        <v>2127.765972943599</v>
       </c>
       <c r="O35" t="n">
-        <v>2798.144092843288</v>
+        <v>2630.738443822936</v>
       </c>
       <c r="P35" t="n">
-        <v>3192.918459200467</v>
+        <v>3344.093531269881</v>
       </c>
       <c r="Q35" t="n">
-        <v>3562.050343549486</v>
+        <v>3627.109599223738</v>
       </c>
       <c r="R35" t="n">
-        <v>3686.126665780541</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S35" t="n">
         <v>3649.270972789483</v>
       </c>
       <c r="T35" t="n">
-        <v>3516.728200655553</v>
+        <v>3516.728200655552</v>
       </c>
       <c r="U35" t="n">
-        <v>3336.632699411237</v>
+        <v>3336.632699411236</v>
       </c>
       <c r="V35" t="n">
         <v>3079.004787549513</v>
       </c>
       <c r="W35" t="n">
-        <v>2799.671107761247</v>
+        <v>2799.671107761246</v>
       </c>
       <c r="X35" t="n">
         <v>2499.640324982014</v>
@@ -7011,7 +7011,7 @@
         <v>92.72982491407285</v>
       </c>
       <c r="I36" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J36" t="n">
         <v>167.3998028062281</v>
@@ -7087,10 +7087,10 @@
         <v>170.3954463157127</v>
       </c>
       <c r="H37" t="n">
-        <v>97.61323501541796</v>
+        <v>97.61323501541794</v>
       </c>
       <c r="I37" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J37" t="n">
         <v>118.8451657625464</v>
@@ -7129,10 +7129,10 @@
         <v>1435.859043178834</v>
       </c>
       <c r="V37" t="n">
-        <v>1210.88713193366</v>
+        <v>1254.609530454795</v>
       </c>
       <c r="W37" t="n">
-        <v>994.9049373785469</v>
+        <v>1038.627335899682</v>
       </c>
       <c r="X37" t="n">
         <v>840.3503619623771</v>
@@ -7157,67 +7157,67 @@
         <v>1289.412839322309</v>
       </c>
       <c r="E38" t="n">
-        <v>977.0595622059125</v>
+        <v>977.059562205912</v>
       </c>
       <c r="F38" t="n">
-        <v>639.5086328981524</v>
+        <v>639.508632898152</v>
       </c>
       <c r="G38" t="n">
         <v>297.8711582249961</v>
       </c>
       <c r="H38" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I38" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J38" t="n">
-        <v>430.0073132949893</v>
+        <v>262.6016642746363</v>
       </c>
       <c r="K38" t="n">
-        <v>763.8266869848358</v>
+        <v>596.4210379644828</v>
       </c>
       <c r="L38" t="n">
-        <v>1214.860900233245</v>
+        <v>1400.765678500833</v>
       </c>
       <c r="M38" t="n">
-        <v>1748.392804905169</v>
+        <v>1934.297583172758</v>
       </c>
       <c r="N38" t="n">
-        <v>2295.171621963952</v>
+        <v>2481.07640023154</v>
       </c>
       <c r="O38" t="n">
-        <v>2798.144092843288</v>
+        <v>2984.048871110877</v>
       </c>
       <c r="P38" t="n">
-        <v>3192.918459200467</v>
+        <v>3378.823237468055</v>
       </c>
       <c r="Q38" t="n">
-        <v>3562.050343549486</v>
+        <v>3627.109599223737</v>
       </c>
       <c r="R38" t="n">
-        <v>3686.126665780541</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S38" t="n">
         <v>3649.270972789483</v>
       </c>
       <c r="T38" t="n">
-        <v>3516.728200655553</v>
+        <v>3516.728200655552</v>
       </c>
       <c r="U38" t="n">
-        <v>3336.632699411237</v>
+        <v>3336.632699411236</v>
       </c>
       <c r="V38" t="n">
-        <v>3079.004787549514</v>
+        <v>3079.004787549513</v>
       </c>
       <c r="W38" t="n">
         <v>2799.671107761247</v>
       </c>
       <c r="X38" t="n">
-        <v>2499.640324982015</v>
+        <v>2499.640324982014</v>
       </c>
       <c r="Y38" t="n">
-        <v>2182.935968488051</v>
+        <v>2182.93596848805</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>92.72982491407285</v>
       </c>
       <c r="I39" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J39" t="n">
         <v>167.3998028062281</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>628.501667473437</v>
+        <v>584.7792689523023</v>
       </c>
       <c r="C40" t="n">
-        <v>533.0004600273776</v>
+        <v>489.2780615062429</v>
       </c>
       <c r="D40" t="n">
-        <v>456.3187960968894</v>
+        <v>412.5963975757547</v>
       </c>
       <c r="E40" t="n">
-        <v>381.8406779963438</v>
+        <v>338.1182794752091</v>
       </c>
       <c r="F40" t="n">
         <v>264.6633074591462</v>
       </c>
       <c r="G40" t="n">
-        <v>170.3954463157126</v>
+        <v>170.3954463157127</v>
       </c>
       <c r="H40" t="n">
         <v>97.61323501541794</v>
       </c>
       <c r="I40" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J40" t="n">
         <v>118.8451657625464</v>
@@ -7363,19 +7363,19 @@
         <v>1651.526934571343</v>
       </c>
       <c r="U40" t="n">
-        <v>1435.859043178834</v>
+        <v>1392.136644657699</v>
       </c>
       <c r="V40" t="n">
-        <v>1254.609530454795</v>
+        <v>1210.88713193366</v>
       </c>
       <c r="W40" t="n">
-        <v>1038.627335899682</v>
+        <v>994.9049373785469</v>
       </c>
       <c r="X40" t="n">
-        <v>884.0727604835117</v>
+        <v>840.3503619623771</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.7151568218292</v>
+        <v>692.9927583006945</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2025.683159108421</v>
+        <v>1661.888363635582</v>
       </c>
       <c r="C41" t="n">
-        <v>1704.170275116083</v>
+        <v>1340.375479643243</v>
       </c>
       <c r="D41" t="n">
-        <v>1393.354209457406</v>
+        <v>1340.375479643243</v>
       </c>
       <c r="E41" t="n">
-        <v>1055.015589807235</v>
+        <v>1002.036859993072</v>
       </c>
       <c r="F41" t="n">
-        <v>691.4793179657008</v>
+        <v>691.4793179657005</v>
       </c>
       <c r="G41" t="n">
         <v>323.8565007587703</v>
       </c>
       <c r="H41" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I41" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J41" t="n">
-        <v>430.0073132949893</v>
+        <v>262.6016642746363</v>
       </c>
       <c r="K41" t="n">
-        <v>884.6722095781724</v>
+        <v>917.3249964099358</v>
       </c>
       <c r="L41" t="n">
-        <v>1335.706422826581</v>
+        <v>1368.359209658345</v>
       </c>
       <c r="M41" t="n">
-        <v>1869.238327498506</v>
+        <v>1901.891114330269</v>
       </c>
       <c r="N41" t="n">
-        <v>2416.017144557288</v>
+        <v>2481.07640023154</v>
       </c>
       <c r="O41" t="n">
-        <v>2918.989615436625</v>
+        <v>2984.048871110877</v>
       </c>
       <c r="P41" t="n">
-        <v>3313.763981793803</v>
+        <v>3378.823237468055</v>
       </c>
       <c r="Q41" t="n">
-        <v>3562.050343549486</v>
+        <v>3627.109599223737</v>
       </c>
       <c r="R41" t="n">
-        <v>3686.126665780541</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S41" t="n">
-        <v>3623.285630255709</v>
+        <v>3623.285630255708</v>
       </c>
       <c r="T41" t="n">
         <v>3464.757515588004</v>
@@ -7445,16 +7445,16 @@
         <v>3258.676671809914</v>
       </c>
       <c r="V41" t="n">
-        <v>3033.539190565215</v>
+        <v>2975.063417414417</v>
       </c>
       <c r="W41" t="n">
-        <v>3033.539190565215</v>
+        <v>2669.744395092376</v>
       </c>
       <c r="X41" t="n">
-        <v>2707.523065252208</v>
+        <v>2343.728269779369</v>
       </c>
       <c r="Y41" t="n">
-        <v>2364.83336622447</v>
+        <v>2001.03857075163</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>948.754271364536</v>
+        <v>948.7542713645361</v>
       </c>
       <c r="C42" t="n">
-        <v>774.301242083409</v>
+        <v>774.3012420834091</v>
       </c>
       <c r="D42" t="n">
-        <v>625.3668324221577</v>
+        <v>625.3668324221578</v>
       </c>
       <c r="E42" t="n">
-        <v>466.1293774167022</v>
+        <v>466.1293774167023</v>
       </c>
       <c r="F42" t="n">
         <v>319.5948194435872</v>
@@ -7482,10 +7482,10 @@
         <v>183.2317192762053</v>
       </c>
       <c r="H42" t="n">
-        <v>92.72982491407282</v>
+        <v>92.72982491407285</v>
       </c>
       <c r="I42" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J42" t="n">
         <v>167.3998028062281</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>766.6766666887215</v>
+        <v>766.6766666887218</v>
       </c>
       <c r="C43" t="n">
-        <v>645.1901167088879</v>
+        <v>645.1901167088881</v>
       </c>
       <c r="D43" t="n">
-        <v>542.5231102446255</v>
+        <v>542.5231102446257</v>
       </c>
       <c r="E43" t="n">
-        <v>442.0596496103058</v>
+        <v>442.0596496103059</v>
       </c>
       <c r="F43" t="n">
-        <v>342.6193350604687</v>
+        <v>342.6193350604688</v>
       </c>
       <c r="G43" t="n">
-        <v>222.3661313832609</v>
+        <v>222.3661313832611</v>
       </c>
       <c r="H43" t="n">
         <v>123.5985775491922</v>
       </c>
       <c r="I43" t="n">
-        <v>73.72253331561082</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J43" t="n">
         <v>165.3505510149525</v>
@@ -7612,7 +7612,7 @@
         <v>1074.218444766345</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.8754985708879</v>
+        <v>900.8754985708881</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2025.683159108421</v>
+        <v>1661.888363635581</v>
       </c>
       <c r="C44" t="n">
-        <v>1704.170275116083</v>
+        <v>1340.375479643243</v>
       </c>
       <c r="D44" t="n">
-        <v>1393.354209457406</v>
+        <v>1029.559413984565</v>
       </c>
       <c r="E44" t="n">
-        <v>1055.015589807235</v>
+        <v>1029.559413984565</v>
       </c>
       <c r="F44" t="n">
-        <v>691.4793179657005</v>
+        <v>666.023142143031</v>
       </c>
       <c r="G44" t="n">
-        <v>323.8565007587703</v>
+        <v>298.4003249361008</v>
       </c>
       <c r="H44" t="n">
-        <v>73.7225333156108</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="I44" t="n">
-        <v>73.7225333156108</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="J44" t="n">
-        <v>430.0073132949893</v>
+        <v>262.6016642746362</v>
       </c>
       <c r="K44" t="n">
-        <v>763.8266869848358</v>
+        <v>596.4210379644827</v>
       </c>
       <c r="L44" t="n">
-        <v>1214.860900233245</v>
+        <v>1400.765678500833</v>
       </c>
       <c r="M44" t="n">
-        <v>1748.392804905169</v>
+        <v>1934.297583172757</v>
       </c>
       <c r="N44" t="n">
-        <v>2295.171621963952</v>
+        <v>2481.07640023154</v>
       </c>
       <c r="O44" t="n">
-        <v>2798.144092843288</v>
+        <v>2984.048871110876</v>
       </c>
       <c r="P44" t="n">
-        <v>3192.918459200467</v>
+        <v>3378.823237468055</v>
       </c>
       <c r="Q44" t="n">
-        <v>3562.050343549485</v>
+        <v>3627.109599223737</v>
       </c>
       <c r="R44" t="n">
-        <v>3686.12666578054</v>
+        <v>3686.126665780539</v>
       </c>
       <c r="S44" t="n">
-        <v>3623.285630255709</v>
+        <v>3623.285630255708</v>
       </c>
       <c r="T44" t="n">
-        <v>3464.757515588004</v>
+        <v>3464.757515588003</v>
       </c>
       <c r="U44" t="n">
-        <v>3258.676671809914</v>
+        <v>3258.676671809913</v>
       </c>
       <c r="V44" t="n">
-        <v>3258.676671809914</v>
+        <v>2975.063417414416</v>
       </c>
       <c r="W44" t="n">
-        <v>3033.539190565215</v>
+        <v>2669.744395092375</v>
       </c>
       <c r="X44" t="n">
-        <v>2707.523065252209</v>
+        <v>2343.728269779368</v>
       </c>
       <c r="Y44" t="n">
-        <v>2364.83336622447</v>
+        <v>2001.03857075163</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>948.7542713645361</v>
+        <v>948.754271364536</v>
       </c>
       <c r="C45" t="n">
-        <v>774.3012420834091</v>
+        <v>774.301242083409</v>
       </c>
       <c r="D45" t="n">
-        <v>625.3668324221578</v>
+        <v>625.3668324221577</v>
       </c>
       <c r="E45" t="n">
-        <v>466.1293774167023</v>
+        <v>466.1293774167022</v>
       </c>
       <c r="F45" t="n">
         <v>319.5948194435872</v>
@@ -7719,10 +7719,10 @@
         <v>183.2317192762053</v>
       </c>
       <c r="H45" t="n">
-        <v>92.72982491407285</v>
+        <v>92.72982491407282</v>
       </c>
       <c r="I45" t="n">
-        <v>73.7225333156108</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="J45" t="n">
         <v>167.3998028062281</v>
@@ -7795,19 +7795,19 @@
         <v>342.6193350604686</v>
       </c>
       <c r="G46" t="n">
-        <v>222.3661313832609</v>
+        <v>222.3661313832608</v>
       </c>
       <c r="H46" t="n">
-        <v>123.598577549192</v>
+        <v>123.5985775491921</v>
       </c>
       <c r="I46" t="n">
-        <v>73.7225333156108</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="J46" t="n">
         <v>165.350551014953</v>
       </c>
       <c r="K46" t="n">
-        <v>415.8431192162358</v>
+        <v>415.8431192162359</v>
       </c>
       <c r="L46" t="n">
         <v>778.9083029171386</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>165.5682265218425</v>
+        <v>165.5682265218423</v>
       </c>
       <c r="K8" t="n">
-        <v>196.8928238898395</v>
+        <v>196.8928238898392</v>
       </c>
       <c r="L8" t="n">
-        <v>206.9884515625804</v>
+        <v>206.9884515625801</v>
       </c>
       <c r="M8" t="n">
-        <v>198.3252040166153</v>
+        <v>198.325204016615</v>
       </c>
       <c r="N8" t="n">
-        <v>196.8739006563497</v>
+        <v>196.8739006563493</v>
       </c>
       <c r="O8" t="n">
-        <v>199.3724025592454</v>
+        <v>199.372402559245</v>
       </c>
       <c r="P8" t="n">
-        <v>205.0092287578876</v>
+        <v>205.0092287578873</v>
       </c>
       <c r="Q8" t="n">
-        <v>202.6127329749891</v>
+        <v>202.6127329749888</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>117.6192276796911</v>
+        <v>117.619227679691</v>
       </c>
       <c r="K9" t="n">
-        <v>122.0857268206297</v>
+        <v>122.0857268206295</v>
       </c>
       <c r="L9" t="n">
-        <v>117.3688804135389</v>
+        <v>117.3688804135386</v>
       </c>
       <c r="M9" t="n">
-        <v>117.4115554169544</v>
+        <v>117.4115554169541</v>
       </c>
       <c r="N9" t="n">
-        <v>105.964903136271</v>
+        <v>105.9649031362707</v>
       </c>
       <c r="O9" t="n">
-        <v>119.3814220199299</v>
+        <v>119.3814220199296</v>
       </c>
       <c r="P9" t="n">
-        <v>115.3424657637594</v>
+        <v>115.3424657637592</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.5268145151131</v>
+        <v>127.5268145151129</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>122.7231057150835</v>
+        <v>122.7231057150833</v>
       </c>
       <c r="M10" t="n">
-        <v>126.1031129636129</v>
+        <v>126.1031129636128</v>
       </c>
       <c r="N10" t="n">
-        <v>115.1677679371615</v>
+        <v>115.1677679371614</v>
       </c>
       <c r="O10" t="n">
-        <v>126.8943457673268</v>
+        <v>126.8943457673267</v>
       </c>
       <c r="P10" t="n">
-        <v>127.8345507770354</v>
+        <v>127.8345507770353</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>142.7818793262985</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.00025481413</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.4045891167282</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>40.02214132148703</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>306.6874953089243</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>21.13839585591472</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>402.5500016878925</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.0661844377138</v>
+        <v>35.08051131128727</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>356.8792194827691</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.0661844377138</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>122.0661844377138</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>32.73380691160435</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>356.8792194827687</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.0661844377134</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>98.35495372958583</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>55.87771033586986</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>10.77045937259405</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>102.4006336413264</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>186.0561251324161</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>226.3829802585718</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,10 +23792,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>110.9327888412684</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5063165497204</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6512616129628</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>110.9327888412675</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>73.78784377802596</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>301.5063165497204</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>5.613287612504791e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>52.44894251602068</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25685,10 +25685,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>57.89101541928999</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>25.20161406444274</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,10 +25922,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>79.37972566656836</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>860117.7661847291</v>
+        <v>860117.7661847289</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736673.5068005602</v>
+        <v>736673.5068005603</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>759170.0836266122</v>
+        <v>759170.0836266123</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759170.0836266122</v>
+        <v>759170.0836266123</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>802431.9527713809</v>
+        <v>802431.9527713808</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775196.8919620614</v>
+        <v>775196.8919620613</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775196.8919620614</v>
+        <v>775196.8919620613</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736308</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="C2" t="n">
-        <v>655422.0114825317</v>
+        <v>655422.0114825314</v>
       </c>
       <c r="D2" t="n">
-        <v>655432.6837341761</v>
+        <v>655432.6837341762</v>
       </c>
       <c r="E2" t="n">
         <v>611624.807911874</v>
       </c>
       <c r="F2" t="n">
-        <v>611624.8079118741</v>
+        <v>611624.8079118743</v>
       </c>
       <c r="G2" t="n">
-        <v>630569.2936601278</v>
+        <v>630569.293660128</v>
       </c>
       <c r="H2" t="n">
-        <v>630569.2936601281</v>
+        <v>630569.2936601283</v>
       </c>
       <c r="I2" t="n">
         <v>656833.4158914264</v>
       </c>
       <c r="J2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="K2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="N2" t="n">
         <v>656833.4158914265</v>
@@ -26353,7 +26353,7 @@
         <v>633898.6278414734</v>
       </c>
       <c r="P2" t="n">
-        <v>633898.6278414732</v>
+        <v>633898.6278414734</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>35702.60046935015</v>
+        <v>35702.6004693506</v>
       </c>
       <c r="E3" t="n">
         <v>1124903.918865024</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.71800812506</v>
+        <v>16999.71800812505</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.23978166283</v>
+        <v>28261.23978166274</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.54414803092</v>
+        <v>40637.54414803085</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.71800812488</v>
+        <v>16999.71800812486</v>
       </c>
       <c r="M3" t="n">
-        <v>204641.6335045839</v>
+        <v>204641.6335045841</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>423752.0599707545</v>
+        <v>423752.0599707544</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359857</v>
+        <v>58215.55741359854</v>
       </c>
       <c r="F4" t="n">
-        <v>58215.55741359854</v>
+        <v>58215.55741359852</v>
       </c>
       <c r="G4" t="n">
-        <v>71624.61628857307</v>
+        <v>71624.61628857304</v>
       </c>
       <c r="H4" t="n">
-        <v>71624.61628857304</v>
+        <v>71624.61628857306</v>
       </c>
       <c r="I4" t="n">
         <v>85910.97499131851</v>
       </c>
       <c r="J4" t="n">
+        <v>82806.76150409838</v>
+      </c>
+      <c r="K4" t="n">
         <v>82806.76150409839</v>
       </c>
-      <c r="K4" t="n">
-        <v>82806.76150409842</v>
-      </c>
       <c r="L4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="M4" t="n">
         <v>86578.4485683661</v>
       </c>
       <c r="N4" t="n">
-        <v>86578.44856836612</v>
+        <v>86578.44856836608</v>
       </c>
       <c r="O4" t="n">
-        <v>70331.39278750691</v>
+        <v>70331.39278750686</v>
       </c>
       <c r="P4" t="n">
-        <v>70331.39278750686</v>
+        <v>70331.39278750685</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34616.49914020256</v>
+        <v>34616.49914020257</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
         <v>80041.92993831307</v>
@@ -26491,7 +26491,7 @@
         <v>86503.56094423248</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26506,7 +26506,7 @@
         <v>85898.12629704372</v>
       </c>
       <c r="O5" t="n">
-        <v>83735.41015318657</v>
+        <v>83735.41015318656</v>
       </c>
       <c r="P5" t="n">
         <v>83735.41015318656</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185519.5912543826</v>
+        <v>185515.1776765143</v>
       </c>
       <c r="C6" t="n">
-        <v>183127.8534204779</v>
+        <v>183123.4427816999</v>
       </c>
       <c r="D6" t="n">
-        <v>161361.5241538689</v>
+        <v>161357.1468658772</v>
       </c>
       <c r="E6" t="n">
-        <v>-649750.1616885299</v>
+        <v>-649891.438588466</v>
       </c>
       <c r="F6" t="n">
-        <v>475153.7571764939</v>
+        <v>475012.4802765581</v>
       </c>
       <c r="G6" t="n">
-        <v>461903.0294251165</v>
+        <v>461820.954043144</v>
       </c>
       <c r="H6" t="n">
-        <v>478902.747433242</v>
+        <v>478820.6720512693</v>
       </c>
       <c r="I6" t="n">
-        <v>456157.6401742125</v>
+        <v>456157.6401742126</v>
       </c>
       <c r="J6" t="n">
-        <v>444011.1685644907</v>
+        <v>444011.1685644911</v>
       </c>
       <c r="K6" t="n">
-        <v>484648.7127125221</v>
+        <v>484648.712712522</v>
       </c>
       <c r="L6" t="n">
-        <v>467648.9947043975</v>
+        <v>467648.9947043971</v>
       </c>
       <c r="M6" t="n">
-        <v>279715.2075214328</v>
+        <v>279715.2075214325</v>
       </c>
       <c r="N6" t="n">
         <v>484356.8410260166</v>
       </c>
       <c r="O6" t="n">
-        <v>479831.8249007799</v>
+        <v>479760.1536881239</v>
       </c>
       <c r="P6" t="n">
-        <v>479831.8249007798</v>
+        <v>479760.153688124</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>72.70062572702903</v>
       </c>
       <c r="N2" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>45.3623458808513</v>
+        <v>45.36234588085182</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6782811575464</v>
+        <v>937.6782811575463</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>921.5316664451352</v>
+        <v>921.5316664451351</v>
       </c>
       <c r="N4" t="n">
-        <v>921.5316664451352</v>
+        <v>921.531666445135</v>
       </c>
       <c r="O4" t="n">
-        <v>921.5316664451352</v>
+        <v>921.531666445135</v>
       </c>
       <c r="P4" t="n">
-        <v>921.5316664451351</v>
+        <v>921.5316664451349</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72548910843649</v>
+        <v>25.72548910843647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24964751015609</v>
+        <v>21.24964751015607</v>
       </c>
       <c r="M2" t="n">
         <v>25.72548910843648</v>
@@ -26963,7 +26963,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>41.68848298760898</v>
+        <v>41.6884829876095</v>
       </c>
       <c r="E3" t="n">
         <v>1044.414354712447</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2768257552538</v>
+        <v>106.2768257552534</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65818005106837</v>
+        <v>76.65818005106814</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>738.596660638813</v>
+        <v>738.5966606388135</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72548910843649</v>
+        <v>25.72548910843647</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.6071955840997</v>
       </c>
       <c r="I8" t="n">
-        <v>203.4454098133345</v>
+        <v>203.4454098133344</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>138.4138718730571</v>
+        <v>138.413871873057</v>
       </c>
       <c r="S8" t="n">
         <v>204.8645139811804</v>
@@ -27950,7 +27950,7 @@
         <v>111.2931056928207</v>
       </c>
       <c r="I9" t="n">
-        <v>86.03725157627656</v>
+        <v>86.03725157627652</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.09982124425322</v>
+        <v>94.09982124425315</v>
       </c>
       <c r="S9" t="n">
         <v>169.8708170019</v>
@@ -28029,13 +28029,13 @@
         <v>161.4998876833171</v>
       </c>
       <c r="I10" t="n">
-        <v>152.9904972194902</v>
+        <v>152.9904972194901</v>
       </c>
       <c r="J10" t="n">
-        <v>87.57585283937145</v>
+        <v>87.57585283937139</v>
       </c>
       <c r="K10" t="n">
-        <v>12.76570854133729</v>
+        <v>12.76570854133718</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.31232902368583</v>
+        <v>79.31232902368576</v>
       </c>
       <c r="R10" t="n">
         <v>173.6153231357483</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.90347009138117</v>
       </c>
       <c r="M19" t="n">
-        <v>28.90347009138128</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>28.90347009138117</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.90347009138132</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22478412874865</v>
+        <v>68.22478412874864</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>28.90347009138139</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>28.90347009138132</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22478412874862</v>
+        <v>68.22478412874864</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -30201,13 +30201,13 @@
         <v>72.70062572702903</v>
       </c>
       <c r="V37" t="n">
-        <v>29.4154511911058</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="W37" t="n">
         <v>72.70062572702903</v>
       </c>
       <c r="X37" t="n">
-        <v>72.70062572702903</v>
+        <v>29.41545119110566</v>
       </c>
       <c r="Y37" t="n">
         <v>72.70062572702903</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="C38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="D38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="E38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="F38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="G38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="H38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="T38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="U38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="V38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="W38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="X38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="C40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="D40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="E40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="F40" t="n">
-        <v>29.41545119110559</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="G40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="H40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="I40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="S40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="T40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="U40" t="n">
-        <v>72.70062572702905</v>
+        <v>29.41545119110577</v>
       </c>
       <c r="V40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="W40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="X40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.70062572702905</v>
+        <v>72.70062572702903</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1823611894707589</v>
+        <v>0.1823611894707609</v>
       </c>
       <c r="H8" t="n">
-        <v>1.86760653166741</v>
+        <v>1.867606531667431</v>
       </c>
       <c r="I8" t="n">
-        <v>7.030479757071438</v>
+        <v>7.030479757071518</v>
       </c>
       <c r="J8" t="n">
-        <v>15.47767800484383</v>
+        <v>15.47767800484401</v>
       </c>
       <c r="K8" t="n">
-        <v>23.19702715514106</v>
+        <v>23.19702715514133</v>
       </c>
       <c r="L8" t="n">
-        <v>28.7779634074068</v>
+        <v>28.77796340740713</v>
       </c>
       <c r="M8" t="n">
-        <v>32.02102921065741</v>
+        <v>32.02102921065777</v>
       </c>
       <c r="N8" t="n">
-        <v>32.53916294024121</v>
+        <v>32.53916294024158</v>
       </c>
       <c r="O8" t="n">
-        <v>30.72580886244135</v>
+        <v>30.7258088624417</v>
       </c>
       <c r="P8" t="n">
-        <v>26.22376699738198</v>
+        <v>26.22376699738228</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.69295689946042</v>
+        <v>19.69295689946065</v>
       </c>
       <c r="R8" t="n">
-        <v>11.45524606809257</v>
+        <v>11.4552460680927</v>
       </c>
       <c r="S8" t="n">
-        <v>4.155555605064921</v>
+        <v>4.155555605064969</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7982861069082473</v>
+        <v>0.7982861069082564</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01458889515766071</v>
+        <v>0.01458889515766087</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09757183830975563</v>
+        <v>0.09757183830975674</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9423385436757979</v>
+        <v>0.9423385436758087</v>
       </c>
       <c r="I9" t="n">
-        <v>3.359381275138517</v>
+        <v>3.359381275138555</v>
       </c>
       <c r="J9" t="n">
-        <v>9.218398986975641</v>
+        <v>9.218398986975748</v>
       </c>
       <c r="K9" t="n">
-        <v>15.75571215372927</v>
+        <v>15.75571215372945</v>
       </c>
       <c r="L9" t="n">
-        <v>21.18549936633532</v>
+        <v>21.18549936633556</v>
       </c>
       <c r="M9" t="n">
-        <v>24.72247850506395</v>
+        <v>24.72247850506424</v>
       </c>
       <c r="N9" t="n">
-        <v>25.37680894706228</v>
+        <v>25.37680894706257</v>
       </c>
       <c r="O9" t="n">
-        <v>23.21482242451453</v>
+        <v>23.2148224245148</v>
       </c>
       <c r="P9" t="n">
-        <v>18.63194165057079</v>
+        <v>18.63194165057101</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.45495957090846</v>
+        <v>12.4549595709086</v>
       </c>
       <c r="R9" t="n">
-        <v>6.058012908389918</v>
+        <v>6.058012908389987</v>
       </c>
       <c r="S9" t="n">
-        <v>1.812354101937784</v>
+        <v>1.812354101937805</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3932829798537956</v>
+        <v>0.3932829798538001</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006419199888799715</v>
+        <v>0.006419199888799789</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08180095158842036</v>
+        <v>0.08180095158842131</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7272848241225016</v>
+        <v>0.7272848241225099</v>
       </c>
       <c r="I10" t="n">
-        <v>2.459977707768133</v>
+        <v>2.459977707768161</v>
       </c>
       <c r="J10" t="n">
-        <v>5.78332727730132</v>
+        <v>5.783327277301386</v>
       </c>
       <c r="K10" t="n">
-        <v>9.503783284545564</v>
+        <v>9.503783284545673</v>
       </c>
       <c r="L10" t="n">
-        <v>12.16157056615479</v>
+        <v>12.16157056615493</v>
       </c>
       <c r="M10" t="n">
-        <v>12.82267098399211</v>
+        <v>12.82267098399226</v>
       </c>
       <c r="N10" t="n">
-        <v>12.51777652807165</v>
+        <v>12.51777652807179</v>
       </c>
       <c r="O10" t="n">
-        <v>11.562192684516</v>
+        <v>11.56219268451614</v>
       </c>
       <c r="P10" t="n">
-        <v>9.89345327211222</v>
+        <v>9.893453272112334</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.849714228008546</v>
+        <v>6.849714228008625</v>
       </c>
       <c r="R10" t="n">
-        <v>3.678068241421155</v>
+        <v>3.678068241421197</v>
       </c>
       <c r="S10" t="n">
-        <v>1.425567492681834</v>
+        <v>1.425567492681851</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3495131567868869</v>
+        <v>0.3495131567868909</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004461870086641116</v>
+        <v>0.004461870086641167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32786,10 +32786,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597742</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36045,10 +36045,10 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6608422615793</v>
       </c>
       <c r="M19" t="n">
-        <v>376.5368494848651</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36136,7 +36136,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36282,7 +36282,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6608422615793</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.297708629275</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36373,10 +36373,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>541.5438655456703</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.7945596178495</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36525,7 +36525,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>373.7604162589215</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
@@ -36534,7 +36534,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>107.297708629275</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>329.1988939204478</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36753,7 +36753,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2134278768875</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>845.6086111391511</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>358.3296824113152</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>941.4711175181193</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37087,7 +37087,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>372.8604892414333</v>
+        <v>285.8748161150068</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>812.4693338751013</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37561,10 +37561,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>372.8604892414333</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597709</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>459.2574709931143</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>585.0356423245158</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165833</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>812.4693338751009</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38035,10 +38035,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>372.8604892414328</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
